--- a/ESPN sports website/IPL/Punjab Kings/Vaibhav Arora.xlsx
+++ b/ESPN sports website/IPL/Punjab Kings/Vaibhav Arora.xlsx
@@ -445,10 +445,10 @@
         <v>Vaibhav Arora</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>33.33</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>April 08, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 7 wickets (with 7 balls remaining)</v>
+        <v>Titans won by 6 wickets</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>Vaibhav Arora</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>50.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I3" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 03, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Vaibhav Arora</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>33.33</v>
+        <v>0.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 08, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 6 wickets</v>
+        <v>Sunrisers won by 7 wickets (with 7 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +550,10 @@
         <v>Vaibhav Arora</v>
       </c>
       <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
         <v>2</v>
-      </c>
-      <c r="D5" t="str">
-        <v>4</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>50.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I5" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J5" t="str">
-        <v>April 20, 2022</v>
+        <v>April 03, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
   </sheetData>
